--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>10.02464547888667</v>
+        <v>10.86212840590667</v>
       </c>
       <c r="R2">
-        <v>90.22180930998002</v>
+        <v>97.75915565316001</v>
       </c>
       <c r="S2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="T2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
         <v>114.4946405901767</v>
@@ -635,10 +635,10 @@
         <v>1030.45176531159</v>
       </c>
       <c r="S3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="T3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>34.20946572390334</v>
+        <v>76.09663222206333</v>
       </c>
       <c r="R4">
-        <v>307.88519151513</v>
+        <v>684.8696899985699</v>
       </c>
       <c r="S4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="T4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>1.232007952246667</v>
+        <v>1.589144586836667</v>
       </c>
       <c r="R5">
-        <v>11.08807157022</v>
+        <v>14.30230128153</v>
       </c>
       <c r="S5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="T5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
     </row>
   </sheetData>
